--- a/pub/Management/WBSbyArea/1.3_Integration_and_Sites.xlsx
+++ b/pub/Management/WBSbyArea/1.3_Integration_and_Sites.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34180" yWindow="1420" windowWidth="24800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="marco mambelli - Personal View" guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="71" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Suchandra Thapa - Personal View" guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" mergeInterval="0" personalView="1" xWindow="1709" yWindow="93" windowWidth="1240" windowHeight="783" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="marco mambelli - Personal View" guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="71" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -23,7 +23,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
+  <si>
+    <t>Commission OSG-dedicated persistent ITB site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of ITB job slots, # GB </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mambelli, Thapa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa, Sakrejda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakrejda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mambelli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mambelli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mambelli, Thapa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa, Sakrejda, Mambelli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa, Sakrejda, Mambelli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa, Sakrejda, Mambelli, Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa, Sakrejda, Mambelli, Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa, Sakrejda, Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakrejda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mambelli, Thapa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thapa, Yehle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># of new packages tested</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide installation packages and cache in a managed software repository</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work with VO area to provide support forfor sites of other VOs, especially smaller sites with limited IT personnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.6.4</t>
+  </si>
+  <si>
+    <t>1.3.6.5</t>
+  </si>
+  <si>
+    <t>1.3.6.6</t>
+  </si>
+  <si>
+    <t>Number of consultation hours given to small sites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running cluster, possible options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Setup configuration management of ITB site for better reliability</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,10 +161,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Small Scale Sites</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -68,33 +173,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Lower level of effort for site administrators for small sites</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ease entrance into OSG for smaller sites</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.6.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Number of pages: created, edited, removed</t>
   </si>
   <si>
-    <t>average # of FTE needed to administer a small site</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># of new sites joining OSG, # of VO and groups in OSG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.6.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Contribute technical content and documentation relevant for OSG site administrators.</t>
   </si>
   <si>
@@ -102,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3.4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,10 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Number of workshops, toal # participants</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,10 +228,6 @@
     <t>1.3.2.3</t>
   </si>
   <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t># of jobs, # of work-types, # submitters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,14 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of sites signning SLA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3.3.2</t>
   </si>
   <si>
@@ -201,15 +262,31 @@
     <t>1.3.3.3</t>
   </si>
   <si>
-    <t>Commission OSG-dedicated persistent ITB site</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of ITB job slots, # GB </t>
+    <t xml:space="preserve">Create, maintain and use a virtual Tier 3 cluster to test different configurations  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work with Production area to provide support for LHC Tier 3 sites.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test software solution targeting simple deployment for small sites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contribute technical documentation for automated testing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of pages: created, edited, removed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improve management and operation of the persistent ITB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -220,10 +297,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WBS_Number</t>
   </si>
   <si>
@@ -251,10 +324,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,10 +337,6 @@
   </si>
   <si>
     <t>Adapt ITB testing process to native packaging tools</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -349,18 +414,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NH, IS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RE, ST, IS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3.5.3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -385,36 +438,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.3.4.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># of new packages tested</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Provide installation packages and cache in a managed software repository</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work with VO area to provide support forfor sites of other VOs, especially smaller sites with limited IT personnel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.6.4</t>
-  </si>
-  <si>
-    <t>1.3.6.5</t>
-  </si>
-  <si>
-    <t>1.3.6.6</t>
-  </si>
-  <si>
-    <t>Number of consultation hours given to small sites</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Running cluster, possible options</t>
+    <t>Number of pages: created, edited, removed; average # of FTE needed to administer a small site,  # of new sites joining OSG, # of VO and groups in OSG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revise VTB and ITB testing to speedup release cycle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length of time for test cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survey which are the barriers for the entrance into OSG of smaller sites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.6.7</t>
+  </si>
+  <si>
+    <t>Write a alternative set of documents easier for new site administrators</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of pages: created, edited, removed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devise simplified configurations for small sites with limited IT support</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.6.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.6.3</t>
+  </si>
+  <si>
+    <t># of recipes, average # of FTE needed to administer a small site,  # of new sites joining OSG, # of VO and groups in OSG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -426,42 +496,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RE, ST, IS, MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RE, ST, IS, MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST, MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST, MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Total number of Campfire hours</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -494,10 +528,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ST, IS, MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Number of operational tickets + # issues</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -509,59 +539,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Number of VOs testing on-demand</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Contribute technical content and documentation relevant for the persistent ITB.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of pages: created, edited, removed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Create, maintain and use a virtual Tier 3 cluster to test different configurations  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work with Production area to provide support for LHC Tier 3 sites.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test software solution targeting simple deployment for small sites</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contribute technical documentation for automated testing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of pages: created, edited, removed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improve management and operation of the persistent ITB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.3.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define operational SLA for pledged sites.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -783,6 +765,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +778,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" guid="{B6405AE2-1340-014F-8CE5-1818F779D8EE}" diskRevisions="1" revisionId="77" version="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" guid="{9DF981CA-DE70-0645-B5FF-60C6CEA4054B}" diskRevisions="1" revisionId="256" version="10">
   <header guid="{C48660FA-862D-DD48-B384-58C955607442}" dateTime="2010-07-15T16:04:55" maxSheetId="2" userName="Suchandra Thapa" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -824,85 +809,33 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{C8ED3AA9-5C8C-D840-A7B6-BCD3F45FF00D}" dateTime="2010-07-30T16:07:57" maxSheetId="2" userName="marco mambelli" r:id="rId7" minRId="78" maxRId="179">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{44B6E268-657D-F14F-8DC3-AC9E37922B34}" dateTime="2010-07-30T16:12:15" maxSheetId="2" userName="marco mambelli" r:id="rId8" minRId="180" maxRId="182">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F936EB97-EA7A-BB4C-AC39-01972ED1D673}" dateTime="2010-08-02T11:21:57" maxSheetId="2" userName="marco mambelli" r:id="rId9" minRId="183" maxRId="256">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9DF981CA-DE70-0645-B5FF-60C6CEA4054B}" dateTime="2010-08-02T11:22:53" maxSheetId="2" userName="marco mambelli" r:id="rId10">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <rrc rId="67" sId="1" ref="A19:XFD19" action="insertRow"/>
-  <rcc rId="68" sId="1">
-    <nc r="A19" t="inlineStr">
-      <is>
-        <t>1.3.3.6</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="69" sId="1">
-    <nc r="G19" t="inlineStr">
-      <is>
-        <t># of services and systems virtualized</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="70" sId="1">
-    <nc r="B19" t="inlineStr">
-      <is>
-        <t>Virtualize ITB resources to allow testing to be reproduced reliably and to aid in troubleshooting</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="71" sId="1" ref="A20:XFD20" action="insertRow"/>
-  <rcc rId="72" sId="1">
-    <nc r="A20" t="inlineStr">
-      <is>
-        <t>1.3.3.7</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="73" sId="1">
-    <nc r="E19" t="inlineStr">
-      <is>
-        <t>ST</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="74" sId="1">
-    <nc r="E20" t="inlineStr">
-      <is>
-        <t>ST</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="75" sId="1">
-    <nc r="F19" t="inlineStr">
-      <is>
-        <t>ST</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="1">
-    <nc r="F20" t="inlineStr">
-      <is>
-        <t>ST</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="77" sId="1">
-    <nc r="B20" t="inlineStr">
-      <is>
-        <t>Setup configuration management of ITB site for better reliability</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="delete"/>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="add"/>
 </revisions>
 </file>
 
@@ -1981,9 +1914,2729 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <rrc rId="67" sId="1" ref="A19:XFD19" action="insertRow"/>
+  <rcc rId="68" sId="1">
+    <nc r="A19" t="inlineStr">
+      <is>
+        <t>1.3.3.6</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="1">
+    <nc r="G19" t="inlineStr">
+      <is>
+        <t># of services and systems virtualized</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="1">
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>Virtualize ITB resources to allow testing to be reproduced reliably and to aid in troubleshooting</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="71" sId="1" ref="A20:XFD20" action="insertRow"/>
+  <rcc rId="72" sId="1">
+    <nc r="A20" t="inlineStr">
+      <is>
+        <t>1.3.3.7</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="1">
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="1">
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="1">
+    <nc r="F19" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="76" sId="1">
+    <nc r="F20" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="77" sId="1">
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>Setup configuration management of ITB site for better reliability</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <rcc rId="78" sId="1">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>MM, ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="79" sId="1" numFmtId="20">
+    <nc r="C4">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="80" sId="1" numFmtId="20">
+    <nc r="C5">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="1" numFmtId="20">
+    <nc r="C6">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="82" sId="1" numFmtId="20">
+    <nc r="C7">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="83" sId="1" numFmtId="20">
+    <nc r="C8">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="84" sId="1" numFmtId="20">
+    <nc r="C10">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="85" sId="1" numFmtId="20">
+    <nc r="C11">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="86" sId="1" numFmtId="20">
+    <nc r="C12">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="87" sId="1" numFmtId="20">
+    <nc r="C14">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="88" sId="1" numFmtId="20">
+    <nc r="C15">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="89" sId="1" numFmtId="20">
+    <nc r="C16">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="90" sId="1" numFmtId="20">
+    <nc r="C22">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="91" sId="1" numFmtId="20">
+    <nc r="C23">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="1" numFmtId="20">
+    <nc r="C24">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="93" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="C28">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="94" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="C29">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="95" sId="1" numFmtId="20">
+    <nc r="C30">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="C35">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="97" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="C36">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="98" sId="1" numFmtId="20">
+    <nc r="C37">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="1" numFmtId="20">
+    <nc r="C38">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="C39">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="101" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="C40">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="102" sId="1" numFmtId="20">
+    <nc r="C31">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="1" numFmtId="20">
+    <nc r="C32">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="1" numFmtId="20">
+    <nc r="C33">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="1" numFmtId="20">
+    <nc r="C25">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="106" sId="1" numFmtId="20">
+    <nc r="C26">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="1" numFmtId="20">
+    <nc r="C17">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="1" numFmtId="20">
+    <nc r="C18">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="109" sId="1" numFmtId="20">
+    <nc r="C19">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="110" sId="1" numFmtId="20">
+    <nc r="C20">
+      <v>38990</v>
+    </nc>
+  </rcc>
+  <rcc rId="111" sId="1" numFmtId="20">
+    <nc r="D22">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="112" sId="1" numFmtId="20">
+    <nc r="D23">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="113" sId="1" numFmtId="20">
+    <nc r="D30">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="114" sId="1" numFmtId="20">
+    <nc r="D31">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="D35" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D36" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="115" sId="1" numFmtId="20">
+    <nc r="D37">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="116" sId="1" numFmtId="20">
+    <nc r="D38">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="117" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="D39">
+      <v>39354</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="118" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="D40">
+      <v>39354</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="D24" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="119" sId="1" xfDxf="1" dxf="1" numFmtId="20">
+    <nc r="D24">
+      <v>39354</v>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="D25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D26" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="120" sId="1" xfDxf="1" dxf="1" numFmtId="20">
+    <nc r="D25">
+      <v>39354</v>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="121" sId="1" xfDxf="1" dxf="1" numFmtId="20">
+    <nc r="D26">
+      <v>39354</v>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="122" sId="1" xfDxf="1" dxf="1" numFmtId="20">
+    <nc r="D28">
+      <v>39354</v>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="123" sId="1" xfDxf="1" dxf="1" numFmtId="20">
+    <nc r="D29">
+      <v>39354</v>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="D32" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D33" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="124" sId="1" xfDxf="1" dxf="1" numFmtId="20">
+    <nc r="D32">
+      <v>39354</v>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="125" sId="1" xfDxf="1" dxf="1" numFmtId="20">
+    <nc r="D33">
+      <v>39354</v>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="126" sId="1" numFmtId="20">
+    <nc r="D35">
+      <v>39050</v>
+    </nc>
+  </rcc>
+  <rcc rId="127" sId="1">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>Ease entrance into OSG for smaller sites</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>Survey which are the barriers for the entrance into OSG of smaller sites</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="128" sId="1" ref="A37:XFD37" action="insertRow"/>
+  <rcc rId="129" sId="1" numFmtId="20">
+    <nc r="D37">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="130" sId="1">
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="1">
+    <nc r="F37" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="132" sId="1" numFmtId="20">
+    <nc r="D36">
+      <v>39050</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="G36" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="133" sId="1">
+    <oc r="G36" t="inlineStr">
+      <is>
+        <t># of new sites joining OSG, # of VO and groups in OSG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="G36" t="inlineStr">
+      <is>
+        <t>Report</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="134" sId="1" numFmtId="20">
+    <nc r="C37">
+      <v>39051</v>
+    </nc>
+  </rcc>
+  <rrc rId="135" sId="1" ref="A35:XFD35" action="insertRow"/>
+  <rcc rId="136" sId="1" odxf="1" dxf="1">
+    <nc r="A35" t="inlineStr">
+      <is>
+        <t xml:space="preserve">1.3.6.1 </t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="B35" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="137" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="C35">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="138" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="D35">
+      <v>39050</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="139" sId="1" odxf="1" dxf="1">
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="140" sId="1" odxf="1" dxf="1">
+    <nc r="F35" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="G35" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H35" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I35" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J35" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="8"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="141" sId="1">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>Lower level of effort for site administrators for small sites</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>Write a alternative set of documents easier for new site administrators</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="142" sId="1" odxf="1" dxf="1">
+    <oc r="G33" t="inlineStr">
+      <is>
+        <t>Number of pages: created, edited, removed</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="G33" t="inlineStr">
+      <is>
+        <t>Number of pages: created, edited, removed</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B35" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="143" sId="1">
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>Devise simplified configurations for small sites with limited IT support</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="1">
+    <oc r="A36" t="inlineStr">
+      <is>
+        <t xml:space="preserve">1.3.6.1 </t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A36" t="inlineStr">
+      <is>
+        <t>1.3.6.2</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="1">
+    <oc r="A37" t="inlineStr">
+      <is>
+        <t>1.3.6.2</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A37" t="inlineStr">
+      <is>
+        <t>1.3.6.3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="146" sId="1">
+    <nc r="A38" t="inlineStr">
+      <is>
+        <t>1.3.6.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="147" sId="1">
+    <oc r="A39" t="inlineStr">
+      <is>
+        <t>1.3.6.3</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A39" t="inlineStr">
+      <is>
+        <t>1.3.6.5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="148" sId="1">
+    <nc r="G38" t="inlineStr">
+      <is>
+        <t>average # of FTE needed to administer a small site,  # of new sites joining OSG, # of VO and groups in OSG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="149" sId="1">
+    <nc r="B38" t="inlineStr">
+      <is>
+        <t>Evaluate the effort for administrators of small sites</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="150" sId="1">
+    <nc r="G35" t="inlineStr">
+      <is>
+        <t># of recipes, average # of FTE needed to administer a small site,  # of new sites joining OSG, # of VO and groups in OSG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="151" sId="1">
+    <oc r="G36" t="inlineStr">
+      <is>
+        <t>average # of FTE needed to administer a small site</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="G36" t="inlineStr">
+      <is>
+        <t>Number of pages: created, edited, removed; average # of FTE needed to administer a small site,  # of new sites joining OSG, # of VO and groups in OSG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="152" sId="1" ref="A38:XFD38" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A38:XFD38" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A38" t="inlineStr">
+        <is>
+          <t>1.3.6.4</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B38" t="inlineStr">
+        <is>
+          <t>Evaluate the effort for administrators of small sites</t>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1" numFmtId="20">
+      <nc r="C38">
+        <v>39051</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1" numFmtId="20">
+      <nc r="D38">
+        <v>39354</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="E38" t="inlineStr">
+        <is>
+          <t>MM</t>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="F38" t="inlineStr">
+        <is>
+          <t>MM</t>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="G38" t="inlineStr">
+        <is>
+          <t>average # of FTE needed to administer a small site,  # of new sites joining OSG, # of VO and groups in OSG</t>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="52"/>
+          </patternFill>
+        </fill>
+        <border outline="0">
+          <left style="medium">
+            <color indexed="64"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="H38" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="52"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I38" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="52"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J38" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="52"/>
+          </patternFill>
+        </fill>
+        <border outline="0">
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="153" sId="1">
+    <nc r="A41" t="inlineStr">
+      <is>
+        <t>1.3.6.7</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="154" sId="1" ref="A14:XFD14" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A14:XFD14" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A14" t="inlineStr">
+        <is>
+          <t>1.3.3.1</t>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B14" t="inlineStr">
+        <is>
+          <t>Define operational SLA for pledged sites.</t>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="left" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1" numFmtId="20">
+      <nc r="C14">
+        <v>38990</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="D14" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="E14" t="inlineStr">
+        <is>
+          <t>ST</t>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="F14" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="G14" t="inlineStr">
+        <is>
+          <t>Number of sites signning SLA</t>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="52"/>
+          </patternFill>
+        </fill>
+        <border outline="0">
+          <left style="medium">
+            <color indexed="64"/>
+          </left>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="H14" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="52"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I14" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="52"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J14" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="52"/>
+          </patternFill>
+        </fill>
+        <border outline="0">
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="155" sId="1" ref="A14:XFD14" action="insertRow"/>
+  <rfmt sheetId="1" sqref="A14" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B14" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="156" sId="1" odxf="1" dxf="1" numFmtId="20">
+    <nc r="C14">
+      <v>38990</v>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="D14" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="157" sId="1" odxf="1" dxf="1">
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="F14" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="158" sId="1">
+    <nc r="K14">
+      <v>9</v>
+    </nc>
+  </rcc>
+  <rcc rId="159" sId="1">
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>Revise VTB and ITB testing to speedup release cycle.</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="1">
+    <nc r="A14" t="inlineStr">
+      <is>
+        <t>1.3.3.1</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="1">
+    <nc r="G14" t="inlineStr">
+      <is>
+        <t>Length of time for test cycle</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="1">
+    <nc r="F14" t="inlineStr">
+      <is>
+        <t>ST, IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="163" sId="1">
+    <oc r="F15" t="inlineStr">
+      <is>
+        <t>NH, IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="164" sId="1">
+    <oc r="F16" t="inlineStr">
+      <is>
+        <t>NH</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>ST, NY</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="165" sId="1" numFmtId="20">
+    <nc r="D4">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="166" sId="1" numFmtId="20">
+    <nc r="D5">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="167" sId="1" numFmtId="20">
+    <nc r="D6">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="168" sId="1" numFmtId="20">
+    <nc r="D10">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="1" numFmtId="20">
+    <nc r="D11">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="170" sId="1" numFmtId="20">
+    <nc r="D12">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="171" sId="1" numFmtId="20">
+    <nc r="D14">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="172" sId="1" numFmtId="20">
+    <nc r="D15">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="1" numFmtId="20">
+    <nc r="D16">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="174" sId="1" numFmtId="20">
+    <nc r="D17">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="175" sId="1" numFmtId="20">
+    <nc r="D18">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="176" sId="1" numFmtId="20">
+    <nc r="D19">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="177" sId="1" numFmtId="20">
+    <nc r="D20">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="1" numFmtId="20">
+    <nc r="D7">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcc rId="179" sId="1" numFmtId="20">
+    <nc r="D8">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="delete"/>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <rcc rId="180" sId="1" numFmtId="20">
+    <oc r="D11">
+      <v>39354</v>
+    </oc>
+    <nc r="D11">
+      <v>39081</v>
+    </nc>
+  </rcc>
+  <rcc rId="181" sId="1" numFmtId="20">
+    <oc r="D19">
+      <v>39354</v>
+    </oc>
+    <nc r="D19">
+      <v>39112</v>
+    </nc>
+  </rcc>
+  <rcc rId="182" sId="1" numFmtId="20">
+    <oc r="D20">
+      <v>39354</v>
+    </oc>
+    <nc r="D20">
+      <v>39081</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="delete"/>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <rcc rId="183" sId="1">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>MM, ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Mambelli, Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="184" sId="1">
+    <oc r="E3" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="185" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="186" sId="1">
+    <oc r="E5" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="1">
+    <oc r="E6" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="188" sId="1">
+    <oc r="E7" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="189" sId="1">
+    <oc r="E8" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="190" sId="1">
+    <oc r="E9" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="191" sId="1">
+    <oc r="F4" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F4" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="192" sId="1">
+    <oc r="F5" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="193" sId="1">
+    <oc r="F6" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F6" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="194" sId="1">
+    <oc r="F7" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F7" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="195" sId="1">
+    <oc r="F8" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F8" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="196" sId="1">
+    <oc r="E10" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="197" sId="1">
+    <oc r="F10" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F10" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="198" sId="1">
+    <oc r="F11" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F11" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="199" sId="1">
+    <oc r="F12" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F12" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="200" sId="1">
+    <oc r="E11" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="201" sId="1">
+    <oc r="E12" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="202" sId="1">
+    <oc r="E13" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="203" sId="1">
+    <oc r="E14" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="204" sId="1">
+    <oc r="F14" t="inlineStr">
+      <is>
+        <t>ST, IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F14" t="inlineStr">
+      <is>
+        <t>Thapa, Sakrejda</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="205" sId="1">
+    <oc r="F15" t="inlineStr">
+      <is>
+        <t>IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>Sakrejda</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="206" sId="1">
+    <oc r="E15" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="207" sId="1">
+    <oc r="E16" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="208" sId="1">
+    <oc r="E17" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="209" sId="1">
+    <oc r="E18" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="210" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="211" sId="1">
+    <oc r="E20" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="212" sId="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="213" sId="1">
+    <oc r="E22" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="214" sId="1">
+    <oc r="E23" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E23" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="215" sId="1">
+    <oc r="E24" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E24" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="216" sId="1">
+    <oc r="E25" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="217" sId="1">
+    <oc r="E26" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="218" sId="1">
+    <oc r="E27" t="inlineStr">
+      <is>
+        <t>ST, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>Mambelli, Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="219" sId="1">
+    <oc r="E28" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="220" sId="1">
+    <oc r="E29" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="221" sId="1">
+    <oc r="E30" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="222" sId="1">
+    <oc r="E31" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E31" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="223" sId="1">
+    <oc r="E32" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E32" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="224" sId="1">
+    <oc r="E33" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E33" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="225" sId="1">
+    <oc r="F32" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F32" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="226" sId="1">
+    <oc r="F28" t="inlineStr">
+      <is>
+        <t>ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F28" t="inlineStr">
+      <is>
+        <t>Thapa, Sakrejda, Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="227" sId="1">
+    <oc r="F29" t="inlineStr">
+      <is>
+        <t>ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F29" t="inlineStr">
+      <is>
+        <t>Thapa, Sakrejda, Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="228" sId="1">
+    <oc r="F30" t="inlineStr">
+      <is>
+        <t>RE, ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F30" t="inlineStr">
+      <is>
+        <t>Thapa, Sakrejda, Mambelli, Engel</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="229" sId="1">
+    <oc r="F31" t="inlineStr">
+      <is>
+        <t>RE, ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F31" t="inlineStr">
+      <is>
+        <t>Thapa, Sakrejda, Mambelli, Engel</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="230" sId="1">
+    <oc r="F33" t="inlineStr">
+      <is>
+        <t>RE, ST, IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F33" t="inlineStr">
+      <is>
+        <t>Thapa, Sakrejda, Engel</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="231" sId="1">
+    <oc r="E34" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="232" sId="1">
+    <oc r="E35" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="233" sId="1">
+    <oc r="F35" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F35" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="234" sId="1">
+    <oc r="F36" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F36" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="235" sId="1">
+    <oc r="F37" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F37" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="236" sId="1">
+    <oc r="F38" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F38" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="237" sId="1">
+    <oc r="F39" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F39" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="238" sId="1">
+    <oc r="F40" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F40" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="239" sId="1">
+    <oc r="F41" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F41" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="240" sId="1">
+    <oc r="E36" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E36" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="241" sId="1">
+    <oc r="E37" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="242" sId="1">
+    <oc r="E38" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E38" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="243" sId="1">
+    <oc r="E39" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E39" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="244" sId="1">
+    <oc r="E40" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E40" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="245" sId="1">
+    <oc r="E41" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E41" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="1">
+    <oc r="F17" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="247" sId="1">
+    <oc r="F18" t="inlineStr">
+      <is>
+        <t>IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F18" t="inlineStr">
+      <is>
+        <t>Sakrejda</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="1">
+    <oc r="F19" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F19" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="249" sId="1">
+    <oc r="F20" t="inlineStr">
+      <is>
+        <t>ST</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F20" t="inlineStr">
+      <is>
+        <t>Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="1">
+    <oc r="F22" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F22" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="1">
+    <oc r="F23" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F23" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="252" sId="1">
+    <oc r="F26" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F26" t="inlineStr">
+      <is>
+        <t>Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="253" sId="1">
+    <oc r="F25" t="inlineStr">
+      <is>
+        <t>ST, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>Mambelli, Thapa</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="254" sId="1">
+    <oc r="F24" t="inlineStr">
+      <is>
+        <t>ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F24" t="inlineStr">
+      <is>
+        <t>Thapa, Sakrejda, Mambelli</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="255" sId="1">
+    <oc r="F16" t="inlineStr">
+      <is>
+        <t>ST, NY</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>Thapa, Yehle</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="256" sId="1" numFmtId="20">
+    <oc r="D35">
+      <v>39050</v>
+    </oc>
+    <nc r="D35">
+      <v>39354</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="delete"/>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" count="2">
   <userInfo guid="{B6405AE2-1340-014F-8CE5-1818F779D8EE}" name="Rob Gardner" id="-605177576" dateTime="2010-07-20T05:17:52"/>
+  <userInfo guid="{9DF981CA-DE70-0645-B5FF-60C6CEA4054B}" name="marco mambelli" id="-486698565" dateTime="2010-08-02T11:08:47"/>
 </users>
 </file>
 
@@ -2307,10 +4960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="13"/>
@@ -2325,41 +4978,41 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" s="5">
         <v>1.3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
@@ -2369,15 +5022,15 @@
     </row>
     <row r="3" spans="1:11" ht="25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="12" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="9"/>
@@ -2387,21 +5040,25 @@
     </row>
     <row r="4" spans="1:11" ht="25" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="C4" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D4" s="23">
+        <v>39354</v>
+      </c>
       <c r="E4" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2409,21 +5066,25 @@
     </row>
     <row r="5" spans="1:11" ht="25" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D5" s="23">
+        <v>39354</v>
+      </c>
       <c r="E5" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -2431,21 +5092,25 @@
     </row>
     <row r="6" spans="1:11" ht="25" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="C6" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D6" s="23">
+        <v>39354</v>
+      </c>
       <c r="E6" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -2453,21 +5118,25 @@
     </row>
     <row r="7" spans="1:11" ht="19" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="C7" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D7" s="23">
+        <v>39354</v>
+      </c>
       <c r="E7" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2475,21 +5144,25 @@
     </row>
     <row r="8" spans="1:11" ht="33" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="C8" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D8" s="23">
+        <v>39354</v>
+      </c>
       <c r="E8" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2497,15 +5170,15 @@
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="12" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="12" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="18"/>
@@ -2515,18 +5188,22 @@
     </row>
     <row r="10" spans="1:11" ht="15">
       <c r="A10" s="15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+        <v>87</v>
+      </c>
+      <c r="C10" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D10" s="23">
+        <v>39354</v>
+      </c>
       <c r="E10" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="10"/>
@@ -2535,21 +5212,25 @@
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="A11" s="15" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+        <v>88</v>
+      </c>
+      <c r="C11" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D11" s="23">
+        <v>39081</v>
+      </c>
       <c r="E11" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -2557,21 +5238,25 @@
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="A12" s="15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="C12" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D12" s="23">
+        <v>39354</v>
+      </c>
       <c r="E12" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2579,15 +5264,15 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="12" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="12" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="18"/>
@@ -2597,41 +5282,54 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+        <v>106</v>
+      </c>
+      <c r="C14" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D14" s="23">
+        <v>39354</v>
+      </c>
       <c r="E14" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="11"/>
+      <c r="K14">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="15" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="C15" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D15" s="23">
+        <v>39354</v>
+      </c>
       <c r="E15" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -2642,21 +5340,25 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="15" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D16" s="23">
+        <v>39354</v>
+      </c>
       <c r="E16" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2664,21 +5366,25 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="15" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="C17" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D17" s="23">
+        <v>39354</v>
+      </c>
       <c r="E17" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2686,21 +5392,25 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="15" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="C18" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D18" s="23">
+        <v>39354</v>
+      </c>
       <c r="E18" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -2708,21 +5418,25 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="C19" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D19" s="23">
+        <v>39112</v>
+      </c>
       <c r="E19" s="15" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
@@ -2730,18 +5444,22 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="15" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="C20" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D20" s="23">
+        <v>39081</v>
+      </c>
       <c r="E20" s="15" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
@@ -2750,15 +5468,15 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="12" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="18"/>
@@ -2768,21 +5486,25 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="21" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="C22" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D22" s="23">
+        <v>39354</v>
+      </c>
       <c r="E22" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -2790,21 +5512,25 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="21" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D23" s="23">
+        <v>39354</v>
+      </c>
       <c r="E23" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -2812,21 +5538,25 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="15" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="C24" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D24" s="23">
+        <v>39354</v>
+      </c>
       <c r="E24" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -2834,21 +5564,25 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="21" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+        <v>121</v>
+      </c>
+      <c r="C25" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D25" s="23">
+        <v>39354</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -2856,21 +5590,25 @@
     </row>
     <row r="26" spans="1:10" ht="16" thickBot="1">
       <c r="A26" s="21" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+        <v>119</v>
+      </c>
+      <c r="C26" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D26" s="23">
+        <v>39354</v>
+      </c>
       <c r="E26" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
@@ -2878,33 +5616,39 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="12" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="21" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="C28" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D28" s="23">
+        <v>39354</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -2912,19 +5656,25 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="21" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="C29" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D29" s="23">
+        <v>39354</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -2932,21 +5682,25 @@
     </row>
     <row r="30" spans="1:10" ht="30">
       <c r="A30" s="21" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+        <v>89</v>
+      </c>
+      <c r="C30" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D30" s="23">
+        <v>39354</v>
+      </c>
       <c r="E30" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -2954,43 +5708,51 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="21" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="C31" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D31" s="23">
+        <v>39354</v>
+      </c>
       <c r="E31" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
+      <c r="G31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="15" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="C32" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D32" s="23">
+        <v>39354</v>
+      </c>
       <c r="E32" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -2998,21 +5760,25 @@
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="15" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+        <v>132</v>
+      </c>
+      <c r="C33" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D33" s="23">
+        <v>39354</v>
+      </c>
       <c r="E33" s="15" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>126</v>
+        <v>15</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -3020,33 +5786,39 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="12" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="12" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="21" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>11</v>
+        <v>114</v>
+      </c>
+      <c r="C35" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D35" s="23">
+        <v>39354</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
@@ -3054,83 +5826,103 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="21" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>12</v>
+        <v>112</v>
+      </c>
+      <c r="C36" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D36" s="23">
+        <v>39050</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="21" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+        <v>109</v>
+      </c>
+      <c r="C37" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D37" s="23">
+        <v>39050</v>
+      </c>
       <c r="E37" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>80</v>
+        <v>9</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="15">
       <c r="A38" s="21" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="C38" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D38" s="23">
+        <v>39354</v>
+      </c>
       <c r="E38" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="21" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>128</v>
+        <v>22</v>
+      </c>
+      <c r="C39" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D39" s="23">
+        <v>39354</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -3138,35 +5930,67 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="21" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>130</v>
+        <v>62</v>
+      </c>
+      <c r="C40" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D40" s="23">
+        <v>39354</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="11"/>
     </row>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="17">
+        <v>38990</v>
+      </c>
+      <c r="D41" s="23">
+        <v>39354</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="11"/>
+    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}">
+      <selection activeCell="D36" sqref="D36"/>
+    </customSheetView>
     <customSheetView guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}">
       <selection activeCell="G9" sqref="G9"/>
     </customSheetView>
-    <customSheetView guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}">
-      <selection activeCell="B24" sqref="B24"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
     <mergeCell ref="G31:J31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
